--- a/data/Current_Comparison_SVM_RF/best_svm_predictions.xlsx
+++ b/data/Current_Comparison_SVM_RF/best_svm_predictions.xlsx
@@ -1,47 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmar\leprosy\Machine_Learning\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmar\leprosy\leprosy_biomarker\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A256EDB7-C2AA-4E75-A83A-A689E1D5177B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A005057-4F5D-4956-B0FF-AC9F5C017DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{288F6E80-9239-4956-8630-EBA296087EEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>13-07-2024.15.25.55</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>22-09-2024.16.26.36</t>
   </si>
   <si>
     <t>svm</t>
@@ -59,55 +48,25 @@
     <t>linear</t>
   </si>
   <si>
-    <t>ENSG00000171858, ENSG00000213442, ENSG00000150991</t>
-  </si>
-  <si>
-    <t>RPS21, RPL18AP3, UBC</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>13-07-2024.15.53.55</t>
-  </si>
-  <si>
-    <t>rf</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>ENSG00000150991, ENSG00000213442, ENSG00000171858</t>
-  </si>
-  <si>
-    <t>UBC, RPL18AP3, RPS21</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>13-07-2024.15.56.02</t>
+    <t>ENSG00000213442, ENSG00000150991, ENSG00000171858</t>
+  </si>
+  <si>
+    <t>RPL18AP3, UBC, RPS21</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>22-09-2024.17.13.39</t>
   </si>
   <si>
     <t>rfe</t>
   </si>
   <si>
-    <t>ENSG00000278771, ENSG00000233493, ENSG00000272906</t>
-  </si>
-  <si>
-    <t>Metazoa_SRP, TMEM238, RP11-533E19.7</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>13-07-2024.15.57.50</t>
-  </si>
-  <si>
-    <t>ENSG00000203875, ENSG00000269893, ENSG00000204387</t>
-  </si>
-  <si>
-    <t>SNHG5, SNHG8, C6orf48</t>
+    <t>ENSG00000155428, ENSG00000266538, ENSG00000233493</t>
+  </si>
+  <si>
+    <t>TRIM74, RP11-385D13.3, TMEM238</t>
   </si>
   <si>
     <t>analysis_id</t>
@@ -141,6 +100,9 @@
   </si>
   <si>
     <t>recall</t>
+  </si>
+  <si>
+    <t>specificity</t>
   </si>
   <si>
     <t>f1</t>
@@ -163,7 +125,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -171,7 +133,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -238,39 +200,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -303,26 +265,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -355,23 +300,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,6 +361,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -441,13 +376,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -512,94 +440,77 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE9F2C0-6699-4312-BBEE-A6EF890EF194}">
-  <dimension ref="A1:O5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -634,19 +545,22 @@
         <v>0.76923076923076927</v>
       </c>
       <c r="L2">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="M2">
         <v>0.8</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.91781722550953326</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -654,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -663,128 +577,37 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3">
-        <v>0.77435897435897427</v>
+        <v>0.89743589743589747</v>
       </c>
       <c r="J3">
-        <v>0.7800562303193882</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="K3">
-        <v>0.76410256410256405</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="L3">
-        <v>0.77176322411765441</v>
+        <v>0.94871794871794868</v>
       </c>
       <c r="M3">
-        <v>0.84970414201183431</v>
-      </c>
-      <c r="N3" t="s">
+        <v>0.89189189189189189</v>
+      </c>
+      <c r="N3">
+        <v>0.94214332675871137</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
         <v>13</v>
-      </c>
-      <c r="O3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>0.91025641025641024</v>
-      </c>
-      <c r="J4">
-        <v>0.92105263157894735</v>
-      </c>
-      <c r="K4">
-        <v>0.89743589743589747</v>
-      </c>
-      <c r="L4">
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="M4">
-        <v>0.98422090729783041</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>0.86923076923076936</v>
-      </c>
-      <c r="J5">
-        <v>0.86743589743589733</v>
-      </c>
-      <c r="K5">
-        <v>0.87179487179487192</v>
-      </c>
-      <c r="L5">
-        <v>0.86958779617007465</v>
-      </c>
-      <c r="M5">
-        <v>0.95338593030900731</v>
-      </c>
-      <c r="N5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
